--- a/Output_Backtest/Minimum_Variance_cumulative_returns.xlsx
+++ b/Output_Backtest/Minimum_Variance_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9906265535585099</v>
+        <v>0.9906262514384843</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9758925062486871</v>
+        <v>0.9758919576659123</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9778478793618903</v>
+        <v>0.9778476440775514</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9841776499036016</v>
+        <v>0.9841771507016375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>1.001554828439141</v>
+        <v>1.001554559142747</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.010911655547536</v>
+        <v>1.010911490910482</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.012366410347833</v>
+        <v>1.012366479289776</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.031560527740047</v>
+        <v>1.031560957223498</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.03466309709655</v>
+        <v>1.034663172305687</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.030871744715389</v>
+        <v>1.030871806246489</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.032459535221369</v>
+        <v>1.032459763655444</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.018989330952387</v>
+        <v>1.01898953767954</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9940814655987318</v>
+        <v>0.9940821282567678</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.9993421364652153</v>
+        <v>0.9993427024928349</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.001440470653222</v>
+        <v>1.001441058648822</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.01084991999569</v>
+        <v>1.010850660785665</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.009511698536841</v>
+        <v>1.009512256076139</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.016003398991238</v>
+        <v>1.016004410884694</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.021460397611162</v>
+        <v>1.021461386727403</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.021297371876735</v>
+        <v>1.021298484917132</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.029647053771603</v>
+        <v>1.029647846510362</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.035818737107743</v>
+        <v>1.035819577672187</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.037539835560037</v>
+        <v>1.03754053780823</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.04119663490231</v>
+        <v>1.041197272354994</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.045389197810869</v>
+        <v>1.045389695731889</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.048946723624749</v>
+        <v>1.048947088795293</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.04955529498467</v>
+        <v>1.049555355656727</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.035577785945836</v>
+        <v>1.035578087688555</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.040978802256721</v>
+        <v>1.040979211659311</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.035419477081564</v>
+        <v>1.035420030612987</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.047079912186009</v>
+        <v>1.047080230776633</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.048007025352661</v>
+        <v>1.048007302731369</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.051015430522647</v>
+        <v>1.051015849695664</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.060902678476607</v>
+        <v>1.06090305524611</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.053384721603383</v>
+        <v>1.053385088616771</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.031646322705605</v>
+        <v>1.031646787774332</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.038284018297047</v>
+        <v>1.038284640862204</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.036974882885356</v>
+        <v>1.036975452340877</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.062971868919377</v>
+        <v>1.062971746964889</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.066840007360253</v>
+        <v>1.066839974240735</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.082858327624598</v>
+        <v>1.082858081107732</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.085939664712354</v>
+        <v>1.085939399969057</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.091938897436667</v>
+        <v>1.091938654093264</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.111555845700475</v>
+        <v>1.111555566529162</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.112116450050811</v>
+        <v>1.11211632726114</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.131584352434051</v>
+        <v>1.131584092305072</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.130158210338976</v>
+        <v>1.130157913798437</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.137167550677056</v>
+        <v>1.137167270657115</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.138653246812975</v>
+        <v>1.138652634279862</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.145428980848029</v>
+        <v>1.145428516786263</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.16034385667312</v>
+        <v>1.160343380428033</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.167544764991833</v>
+        <v>1.167544261206334</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.154336861602404</v>
+        <v>1.154336338650367</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.179592100417042</v>
+        <v>1.179591803147378</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.198293170079786</v>
+        <v>1.198292798783962</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.207333575965528</v>
+        <v>1.207333370658702</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.229231428661868</v>
+        <v>1.229231010477103</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.225962667252168</v>
+        <v>1.2259623039196</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.221645568176061</v>
+        <v>1.221645108966972</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.211766633061956</v>
+        <v>1.211766072716508</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.234842029272372</v>
+        <v>1.234841596010924</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.242351504346122</v>
+        <v>1.24235121135404</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.236505163041511</v>
+        <v>1.236504804074045</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.222026810573294</v>
+        <v>1.222026342816239</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.206687838936606</v>
+        <v>1.206687194883315</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.216565482825122</v>
+        <v>1.216565127791813</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.22150405433513</v>
+        <v>1.2215035971562</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.231289690413084</v>
+        <v>1.231289449069439</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.241476514744405</v>
+        <v>1.2414761102795</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.24044407021144</v>
+        <v>1.240443725591204</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.225782201755802</v>
+        <v>1.225781892841525</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.227788524843219</v>
+        <v>1.227788254925789</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.224287801674474</v>
+        <v>1.224287541361061</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.230500200782432</v>
+        <v>1.230499843902142</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.200410867381347</v>
+        <v>1.20041067068367</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.191836839045724</v>
+        <v>1.191836724046189</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.163139900115253</v>
+        <v>1.163139780569971</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.123811823564982</v>
+        <v>1.123811702515485</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.128616568647619</v>
+        <v>1.12861648209357</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.104818623391199</v>
+        <v>1.10481874497382</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.124186335029002</v>
+        <v>1.124185731656604</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.095746174105712</v>
+        <v>1.095745816530729</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.047311090991406</v>
+        <v>1.047310557468485</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.041495396963128</v>
+        <v>1.041495202112065</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.079987305780742</v>
+        <v>1.079986970374433</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.070394411863421</v>
+        <v>1.070393972669725</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.10312427435682</v>
+        <v>1.103123661992896</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.078252766920093</v>
+        <v>1.078252269024516</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.105056507750956</v>
+        <v>1.105055954288295</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.111813156812176</v>
+        <v>1.111812578487182</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.098355899687287</v>
+        <v>1.098355356889206</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.100696777075306</v>
+        <v>1.100696350458737</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.109256711668578</v>
+        <v>1.109256169668064</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.103374821582873</v>
+        <v>1.103374315656924</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.082061603488936</v>
+        <v>1.082061056715751</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.068287833245866</v>
+        <v>1.068287266083252</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.103936171166567</v>
+        <v>1.103935646897513</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.132598693892463</v>
+        <v>1.132598270726025</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.135583678688119</v>
+        <v>1.135583209944801</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.132643051639542</v>
+        <v>1.132642484968691</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.150346873377051</v>
+        <v>1.150346237066396</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.127397838149381</v>
+        <v>1.127397309614482</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.139805395698649</v>
+        <v>1.13980489742351</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.153419746364178</v>
+        <v>1.153419138244625</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.175239350911621</v>
+        <v>1.175238779934686</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.184075099628209</v>
+        <v>1.184074545889407</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.195576365020657</v>
+        <v>1.195575837440642</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.180347462274653</v>
+        <v>1.180346969223694</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.169903367204942</v>
+        <v>1.169902876455768</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Minimum_Variance_cumulative_returns.xlsx
+++ b/Output_Backtest/Minimum_Variance_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9906262514384843</v>
+        <v>0.9906260758054786</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9758919576659123</v>
+        <v>0.9758934645080508</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9778476440775514</v>
+        <v>0.977849897188855</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9841771507016375</v>
+        <v>0.9841792947766235</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>1.001554559142747</v>
+        <v>1.001555830557956</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.010911490910482</v>
+        <v>1.010913314204286</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.012366479289776</v>
+        <v>1.012367947558545</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.031560957223498</v>
+        <v>1.031562636882274</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.034663172305687</v>
+        <v>1.034664812418924</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.030871806246489</v>
+        <v>1.030873159619868</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.032459763655444</v>
+        <v>1.032461343508129</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.01898953767954</v>
+        <v>1.01899092894936</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9940821282567678</v>
+        <v>0.9940837124198433</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.9993427024928349</v>
+        <v>0.9993441395630551</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.001441058648822</v>
+        <v>1.001442757951253</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.010850660785665</v>
+        <v>1.010851922375663</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.009512256076139</v>
+        <v>1.009514024872869</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.016004410884694</v>
+        <v>1.016005719203457</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.021461386727403</v>
+        <v>1.02146294609392</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.021298484917132</v>
+        <v>1.021299730483995</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.029647846510362</v>
+        <v>1.029649387193444</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.035819577672187</v>
+        <v>1.035820823332576</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.03754053780823</v>
+        <v>1.037541905944949</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.041197272354994</v>
+        <v>1.041198595276517</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.045389695731889</v>
+        <v>1.045391271936671</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.048947088795293</v>
+        <v>1.048948599533536</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.049555355656727</v>
+        <v>1.049556949676741</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.035578087688555</v>
+        <v>1.035579905531956</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.040979211659311</v>
+        <v>1.040980820183658</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.035420030612987</v>
+        <v>1.035421566148026</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.047080230776633</v>
+        <v>1.047082066128119</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.048007302731369</v>
+        <v>1.048009095038643</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.051015849695664</v>
+        <v>1.051017475134937</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.06090305524611</v>
+        <v>1.060904758735103</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.053385088616771</v>
+        <v>1.053386576691714</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.031646787774332</v>
+        <v>1.031648091804069</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.038284640862204</v>
+        <v>1.038286280501242</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.036975452340877</v>
+        <v>1.036977020091713</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.062971746964889</v>
+        <v>1.062973935714992</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.066839974240735</v>
+        <v>1.066842098367708</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.082858081107732</v>
+        <v>1.082860426397357</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.085939399969057</v>
+        <v>1.085941650496411</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.091938654093264</v>
+        <v>1.09194076381378</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.111555566529162</v>
+        <v>1.111557693152641</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.11211632726114</v>
+        <v>1.112118338550659</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.131584092305072</v>
+        <v>1.131586078257507</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.130157913798437</v>
+        <v>1.130159896743689</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.137167270657115</v>
+        <v>1.137169216824416</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.138652634279862</v>
+        <v>1.138654529796617</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.145428516786263</v>
+        <v>1.145430429722775</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.160343380428033</v>
+        <v>1.160345311290501</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.167544261206334</v>
+        <v>1.167546241137802</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.154336338650367</v>
+        <v>1.154338916273083</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.179591803147378</v>
+        <v>1.179593741081788</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.198292798783962</v>
+        <v>1.198294781463336</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.207333370658702</v>
+        <v>1.207335190141409</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.229231010477103</v>
+        <v>1.229233086210703</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.2259623039196</v>
+        <v>1.22596426503045</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.221645108966972</v>
+        <v>1.221647111277493</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.211766072716508</v>
+        <v>1.211767769543987</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.234841596010924</v>
+        <v>1.234843401992306</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.24235121135404</v>
+        <v>1.242353087918783</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.236504804074045</v>
+        <v>1.236506775183907</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.222026342816239</v>
+        <v>1.222028311673476</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.206687194883315</v>
+        <v>1.206689315905784</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.216565127791813</v>
+        <v>1.216567090647478</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.2215035971562</v>
+        <v>1.221505652128805</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.231289449069439</v>
+        <v>1.231291436698712</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.2414761102795</v>
+        <v>1.241478163942698</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.240443725591204</v>
+        <v>1.240445720162928</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.225781892841525</v>
+        <v>1.22578402125671</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.227788254925789</v>
+        <v>1.227790303888291</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.224287541361061</v>
+        <v>1.224289656812171</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.230499843902142</v>
+        <v>1.230501781532177</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.20041067068367</v>
+        <v>1.20041254476305</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.191836724046189</v>
+        <v>1.191838375048026</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.163139780569971</v>
+        <v>1.163141387930577</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.123811702515485</v>
+        <v>1.12381320530246</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.12861648209357</v>
+        <v>1.128618019290584</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.10481874497382</v>
+        <v>1.104820334152814</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.124185731656604</v>
+        <v>1.124189011200768</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.095745816530729</v>
+        <v>1.09574877277484</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.047310557468485</v>
+        <v>1.047313882834445</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.041495202112065</v>
+        <v>1.041499615130987</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.079986970374433</v>
+        <v>1.079990645680154</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.070393972669725</v>
+        <v>1.070397804569204</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.103123661992896</v>
+        <v>1.103127688640251</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.078252269024516</v>
+        <v>1.078255925451944</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.105055954288295</v>
+        <v>1.105059875625285</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.111812578487182</v>
+        <v>1.111816626254992</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.098355356889206</v>
+        <v>1.098359134729722</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.100696350458737</v>
+        <v>1.100700189963239</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.109256169668064</v>
+        <v>1.109260085898504</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.103374315656924</v>
+        <v>1.103378121342407</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.082061056715751</v>
+        <v>1.082064933047765</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.068287266083252</v>
+        <v>1.068291014325657</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.103935646897513</v>
+        <v>1.103939352335019</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.132598270726025</v>
+        <v>1.132602035942037</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.135583209944801</v>
+        <v>1.135587010370236</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.132642484968691</v>
+        <v>1.132646311223113</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.150346237066396</v>
+        <v>1.150350048138218</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.127397309614482</v>
+        <v>1.127400983314136</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.13980489742351</v>
+        <v>1.139808570750521</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.153419138244625</v>
+        <v>1.153422900024314</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.175238779934686</v>
+        <v>1.175242632792651</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.184074545889407</v>
+        <v>1.184078413696018</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.195575837440642</v>
+        <v>1.195579751074803</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.180346969223694</v>
+        <v>1.180351018588626</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.169902876455768</v>
+        <v>1.175538172674553</v>
       </c>
     </row>
   </sheetData>
